--- a/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,55 +102,55 @@
     <t>DEQP003</t>
   </si>
   <si>
-    <t>ECG</t>
+    <t>Électrocardiographie sur au moins 12 dérivations</t>
   </si>
   <si>
     <t>DEQP004</t>
   </si>
   <si>
-    <t>Scope</t>
+    <t>Surveillance continue de l'électrocardiogramme par oscilloscopie et/ou télésurveillance, par 24 heures</t>
   </si>
   <si>
     <t>DEQP005</t>
   </si>
   <si>
-    <t>Holter</t>
+    <t>Électrocardiographie sur au moins 2 dérivations, avec enregistrement continu pendant au moins 24 heures</t>
   </si>
   <si>
     <t>DZQM006</t>
   </si>
   <si>
-    <t>Echographie transthoracique</t>
+    <t>Échographie-doppler transthoracique du coeur et des vaisseaux intrathoraciques</t>
   </si>
   <si>
     <t>DZQJ001</t>
   </si>
   <si>
-    <t>Echographie transoesophagienne</t>
+    <t>Échographie-doppler du coeur et des vaisseaux intrathoraciques, par voie oesophagienne [Échocardiographie-doppler transoesophagienne]</t>
   </si>
   <si>
     <t>ACQN001</t>
   </si>
   <si>
-    <t>ARM Cervicale</t>
+    <t>Remnographie [IRM] du crâne et de son contenu, sans injection intraveineuse de produit de contraste</t>
   </si>
   <si>
     <t>EBQH006</t>
   </si>
   <si>
-    <t>Angiographie cervicale</t>
+    <t>Scanographie des vaisseaux cervicaux [Angioscanner cervical]</t>
   </si>
   <si>
     <t>EAQM004</t>
   </si>
   <si>
-    <t>Echo-Doppler cervical</t>
+    <t>Échographie-doppler transcrânienne des vaisseaux intracrâniens, sans épreuve pharmacodynamique</t>
   </si>
   <si>
     <t>EAQM002</t>
   </si>
   <si>
-    <t>DTC</t>
+    <t>Monitorage de la circulation artérielle intracrânienne par doppler pulsé transcrânien</t>
   </si>
   <si>
     <t/>

--- a/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115835</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-investigation-realisee-eunv-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115835</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:35+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
